--- a/Sprint 2/Sprint2/Sprint2/Kopie von DatenbankSchraube.xlsx
+++ b/Sprint 2/Sprint2/Sprint2/Kopie von DatenbankSchraube.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wurbs\Documents\Uni\Hsp\HSP_GruppeF_Sprint1\Sprint 2\Sprint2\Sprint2\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wurbs\Documents\Uni\Hsp\HSP_GruppeF_Sprint1\Sprint 2\Sprint2\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72737085-6F0C-4FBB-8474-CD1BE2DF256D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{162E65F2-6127-49F1-95E7-2BE99963E31D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1935" windowWidth="20520" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Sechskantschraube</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>dk</t>
+  </si>
+  <si>
+    <t>Senkschraube innensechskant</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -169,6 +172,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -177,7 +189,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -189,8 +201,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -476,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -487,17 +507,22 @@
     <col min="1" max="1" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="K1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -522,8 +547,20 @@
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -548,8 +585,20 @@
       <c r="I3" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K3" s="10">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10">
+        <v>2</v>
+      </c>
+      <c r="M3" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -574,8 +623,20 @@
       <c r="I4" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K4" s="11">
+        <v>4</v>
+      </c>
+      <c r="L4" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M4" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="N4" s="11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -600,8 +661,20 @@
       <c r="I5" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K5" s="10">
+        <v>5</v>
+      </c>
+      <c r="L5" s="10">
+        <v>3</v>
+      </c>
+      <c r="M5" s="10">
+        <v>9.4</v>
+      </c>
+      <c r="N5" s="10">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -626,8 +699,20 @@
       <c r="I6" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K6" s="11">
+        <v>6</v>
+      </c>
+      <c r="L6" s="11">
+        <v>4</v>
+      </c>
+      <c r="M6" s="11">
+        <v>11.3</v>
+      </c>
+      <c r="N6" s="11">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>8</v>
       </c>
@@ -652,8 +737,20 @@
       <c r="I7" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K7" s="10">
+        <v>8</v>
+      </c>
+      <c r="L7" s="10">
+        <v>5</v>
+      </c>
+      <c r="M7" s="10">
+        <v>15.2</v>
+      </c>
+      <c r="N7" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>10</v>
       </c>
@@ -678,8 +775,20 @@
       <c r="I8" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K8" s="11">
+        <v>10</v>
+      </c>
+      <c r="L8" s="11">
+        <v>6</v>
+      </c>
+      <c r="M8" s="11">
+        <v>19.2</v>
+      </c>
+      <c r="N8" s="11">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -704,8 +813,20 @@
       <c r="I9" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K9" s="10">
+        <v>12</v>
+      </c>
+      <c r="L9" s="10">
+        <v>8</v>
+      </c>
+      <c r="M9" s="10">
+        <v>23.1</v>
+      </c>
+      <c r="N9" s="10">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>14</v>
       </c>
@@ -730,8 +851,20 @@
       <c r="I10" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K10" s="11">
+        <v>16</v>
+      </c>
+      <c r="L10" s="11">
+        <v>10</v>
+      </c>
+      <c r="M10" s="11">
+        <v>29</v>
+      </c>
+      <c r="N10" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>16</v>
       </c>
@@ -756,8 +889,20 @@
       <c r="I11" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K11" s="10">
+        <v>20</v>
+      </c>
+      <c r="L11" s="10">
+        <v>12</v>
+      </c>
+      <c r="M11" s="10">
+        <v>36</v>
+      </c>
+      <c r="N11" s="10">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>20</v>
       </c>
@@ -783,7 +928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>24</v>
       </c>
@@ -809,7 +954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>30</v>
       </c>
@@ -835,7 +980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>36</v>
       </c>
@@ -850,8 +995,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sprint 2/Sprint2/Sprint2/Kopie von DatenbankSchraube.xlsx
+++ b/Sprint 2/Sprint2/Sprint2/Kopie von DatenbankSchraube.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wurbs\Documents\Uni\Hsp\HSP_GruppeF_Sprint1\Sprint 2\Sprint2\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{162E65F2-6127-49F1-95E7-2BE99963E31D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC34B87-47EB-49F8-867A-597CF8FE6956}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Sechskantschraube</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Senkschraube innensechskant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zylinderschraube mit Schlitz </t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -86,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,9 +201,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -206,12 +217,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Akzent3" xfId="3" builtinId="38"/>
@@ -496,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -507,498 +524,590 @@
     <col min="1" max="1" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="K1" s="13" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="16"/>
+      <c r="K1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="P1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="B3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.01</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2</v>
+      </c>
+      <c r="M3" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="P3" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="R3" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="S3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
+      <c r="B4" s="3">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7.66</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>6.01</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4</v>
+      </c>
+      <c r="K4" s="10">
+        <v>4</v>
+      </c>
+      <c r="L4" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="M4" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="N4" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="P4" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="R4" s="13">
+        <v>7</v>
+      </c>
+      <c r="S4" s="13">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="9">
+        <v>5</v>
+      </c>
+      <c r="L5" s="9">
+        <v>3</v>
+      </c>
+      <c r="M5" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="N5" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="P5" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="R5" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="S5" s="12">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>11.05</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3">
+        <v>6</v>
+      </c>
+      <c r="K6" s="10">
+        <v>6</v>
+      </c>
+      <c r="L6" s="10">
+        <v>4</v>
+      </c>
+      <c r="M6" s="10">
+        <v>11.3</v>
+      </c>
+      <c r="N6" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="P6" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="R6" s="13">
+        <v>10</v>
+      </c>
+      <c r="S6" s="13">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>14.38</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2">
+        <v>8</v>
+      </c>
+      <c r="K7" s="9">
+        <v>8</v>
+      </c>
+      <c r="L7" s="9">
+        <v>5</v>
+      </c>
+      <c r="M7" s="9">
+        <v>15.2</v>
+      </c>
+      <c r="N7" s="9">
+        <v>5</v>
+      </c>
+      <c r="P7" s="10">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="12">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="R7" s="12">
+        <v>13</v>
+      </c>
+      <c r="S7" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>17.77</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3">
+        <v>16</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="K8" s="10">
+        <v>10</v>
+      </c>
+      <c r="L8" s="10">
+        <v>6</v>
+      </c>
+      <c r="M8" s="10">
+        <v>19.2</v>
+      </c>
+      <c r="N8" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="P8" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="13">
         <v>2.5</v>
       </c>
-      <c r="H3" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3</v>
-      </c>
-      <c r="K3" s="10">
-        <v>3</v>
-      </c>
-      <c r="L3" s="10">
-        <v>2</v>
-      </c>
-      <c r="M3" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="N3" s="10">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7.66</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="4">
-        <v>7</v>
-      </c>
-      <c r="I4" s="4">
-        <v>4</v>
-      </c>
-      <c r="K4" s="11">
-        <v>4</v>
-      </c>
-      <c r="L4" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="M4" s="11">
+      <c r="R8" s="13">
+        <v>16</v>
+      </c>
+      <c r="S8" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20.03</v>
+      </c>
+      <c r="D9" s="2">
         <v>7.5</v>
       </c>
-      <c r="N4" s="11">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="F9" s="2">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2">
+        <v>12</v>
+      </c>
+      <c r="K9" s="9">
+        <v>12</v>
+      </c>
+      <c r="L9" s="9">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
-        <v>8.7899999999999991</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I5" s="3">
-        <v>5</v>
-      </c>
-      <c r="K5" s="10">
-        <v>5</v>
-      </c>
-      <c r="L5" s="10">
-        <v>3</v>
-      </c>
-      <c r="M5" s="10">
-        <v>9.4</v>
-      </c>
-      <c r="N5" s="10">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="M9" s="9">
+        <v>23.1</v>
+      </c>
+      <c r="N9" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <v>23.38</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F10" s="4">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3">
+        <v>16</v>
+      </c>
+      <c r="K10" s="10">
+        <v>16</v>
+      </c>
+      <c r="L10" s="10">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
-        <v>11.05</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4">
-        <v>6</v>
-      </c>
-      <c r="G6" s="4">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="M10" s="10">
+        <v>29</v>
+      </c>
+      <c r="N10" s="10">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>26.75</v>
+      </c>
+      <c r="D11" s="2">
         <v>10</v>
       </c>
-      <c r="I6" s="4">
-        <v>6</v>
-      </c>
-      <c r="K6" s="11">
-        <v>6</v>
-      </c>
-      <c r="L6" s="11">
-        <v>4</v>
-      </c>
-      <c r="M6" s="11">
-        <v>11.3</v>
-      </c>
-      <c r="N6" s="11">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
-        <v>14.38</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3">
-        <v>13</v>
-      </c>
-      <c r="I7" s="3">
-        <v>8</v>
-      </c>
-      <c r="K7" s="10">
-        <v>8</v>
-      </c>
-      <c r="L7" s="10">
-        <v>5</v>
-      </c>
-      <c r="M7" s="10">
-        <v>15.2</v>
-      </c>
-      <c r="N7" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="4">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4">
-        <v>17.77</v>
-      </c>
-      <c r="D8" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="F8" s="4">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4">
-        <v>8</v>
-      </c>
-      <c r="H8" s="4">
-        <v>16</v>
-      </c>
-      <c r="I8" s="4">
-        <v>10</v>
-      </c>
-      <c r="K8" s="11">
-        <v>10</v>
-      </c>
-      <c r="L8" s="11">
-        <v>6</v>
-      </c>
-      <c r="M8" s="11">
-        <v>19.2</v>
-      </c>
-      <c r="N8" s="11">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
+      <c r="F11" s="6">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2">
+        <v>20</v>
+      </c>
+      <c r="K11" s="9">
+        <v>20</v>
+      </c>
+      <c r="L11" s="9">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3">
-        <v>20.03</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3">
-        <v>12</v>
-      </c>
-      <c r="K9" s="10">
-        <v>12</v>
-      </c>
-      <c r="L9" s="10">
-        <v>8</v>
-      </c>
-      <c r="M9" s="10">
-        <v>23.1</v>
-      </c>
-      <c r="N9" s="10">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="4">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4">
-        <v>23.38</v>
-      </c>
-      <c r="D10" s="4">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F10" s="5">
-        <v>16</v>
-      </c>
-      <c r="G10" s="6">
-        <v>14</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="M11" s="9">
+        <v>36</v>
+      </c>
+      <c r="N11" s="9">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <v>33.53</v>
+      </c>
+      <c r="D12" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="F12" s="4">
         <v>24</v>
       </c>
-      <c r="I10" s="4">
-        <v>16</v>
-      </c>
-      <c r="K10" s="11">
-        <v>16</v>
-      </c>
-      <c r="L10" s="11">
-        <v>10</v>
-      </c>
-      <c r="M10" s="11">
-        <v>29</v>
-      </c>
-      <c r="N10" s="11">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="G12" s="5">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3">
+        <v>36</v>
+      </c>
+      <c r="I12" s="3">
         <v>24</v>
       </c>
-      <c r="C11" s="3">
-        <v>26.75</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7">
-        <v>20</v>
-      </c>
-      <c r="G11" s="8">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>39.979999999999997</v>
+      </c>
+      <c r="D13" s="2">
+        <v>15</v>
+      </c>
+      <c r="F13" s="6">
         <v>30</v>
       </c>
-      <c r="I11" s="3">
-        <v>20</v>
-      </c>
-      <c r="K11" s="10">
-        <v>20</v>
-      </c>
-      <c r="L11" s="10">
-        <v>12</v>
-      </c>
-      <c r="M11" s="10">
+      <c r="G13" s="7">
+        <v>22</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45</v>
+      </c>
+      <c r="I13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3">
+        <v>46</v>
+      </c>
+      <c r="C14" s="3">
+        <v>51.28</v>
+      </c>
+      <c r="D14" s="3">
+        <v>18.7</v>
+      </c>
+      <c r="F14" s="4">
         <v>36</v>
       </c>
-      <c r="N11" s="10">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="4">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4">
-        <v>33.53</v>
-      </c>
-      <c r="D12" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="F12" s="5">
-        <v>24</v>
-      </c>
-      <c r="G12" s="6">
-        <v>19</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G14" s="3">
+        <v>27</v>
+      </c>
+      <c r="H14" s="3">
+        <v>54</v>
+      </c>
+      <c r="I14" s="3">
         <v>36</v>
       </c>
-      <c r="I12" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
         <v>36</v>
       </c>
-      <c r="C13" s="3">
-        <v>39.979999999999997</v>
-      </c>
-      <c r="D13" s="3">
-        <v>15</v>
-      </c>
-      <c r="F13" s="7">
-        <v>30</v>
-      </c>
-      <c r="G13" s="8">
-        <v>22</v>
-      </c>
-      <c r="H13" s="3">
-        <v>45</v>
-      </c>
-      <c r="I13" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="4">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4">
-        <v>46</v>
-      </c>
-      <c r="C14" s="4">
-        <v>51.28</v>
-      </c>
-      <c r="D14" s="4">
-        <v>18.7</v>
-      </c>
-      <c r="F14" s="5">
-        <v>36</v>
-      </c>
-      <c r="G14" s="4">
-        <v>27</v>
-      </c>
-      <c r="H14" s="4">
-        <v>54</v>
-      </c>
-      <c r="I14" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>55</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>61.31</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>22.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="K1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>